--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B6AB0E-7359-4DD9-A10B-14855F3753B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>thanhnhadev@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty05121995</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +77,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +364,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7EE1F86E-8B1A-445D-97C6-6767B698AE5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B6AB0E-7359-4DD9-A10B-14855F3753B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286514DB-3F4D-4E26-BD82-73C6AE7680DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286514DB-3F4D-4E26-BD82-73C6AE7680DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503E9DF-2F0F-4B66-BAC8-FADB128FB381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="update" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -37,6 +39,12 @@
   </si>
   <si>
     <t>Aty05121995</t>
+  </si>
+  <si>
+    <t>Aty5121</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -365,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,10 +401,49 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7EE1F86E-8B1A-445D-97C6-6767B698AE5F}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{6BD83CA5-4E38-4793-88E1-773E0F43AD4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C8005-CC9E-4423-A344-148351CF922E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2486F00-4E17-4EB8-BC63-01DF7395A359}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503E9DF-2F0F-4B66-BAC8-FADB128FB381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD089FC2-0456-48A0-A404-B940C4BA3A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>re_password</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>brithday</t>
+  </si>
+  <si>
+    <t>ty</t>
   </si>
 </sst>
 </file>
@@ -89,9 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -373,35 +389,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>939018814</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42350</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -415,6 +458,7 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{6BD83CA5-4E38-4793-88E1-773E0F43AD4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD089FC2-0456-48A0-A404-B940C4BA3A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1582E80-6347-4C51-9B13-DA247D3E8FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -35,15 +35,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>thanhnhadev@gmail.com</t>
-  </si>
-  <si>
-    <t>Aty05121995</t>
-  </si>
-  <si>
-    <t>Aty5121</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -57,9 +48,6 @@
   </si>
   <si>
     <t>brithday</t>
-  </si>
-  <si>
-    <t>ty</t>
   </si>
 </sst>
 </file>
@@ -83,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -104,10 +98,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -392,16 +393,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -412,53 +414,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>939018814</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42350</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7EE1F86E-8B1A-445D-97C6-6767B698AE5F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{6BD83CA5-4E38-4793-88E1-773E0F43AD4F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -484,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1582E80-6347-4C51-9B13-DA247D3E8FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65EFB3B-6F84-4322-B2D5-3D94E1C0CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3168" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -48,12 +48,31 @@
   </si>
   <si>
     <t>brithday</t>
+  </si>
+  <si>
+    <t>thanhnhas@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty05121995</t>
+  </si>
+  <si>
+    <t>tynguyen95</t>
+  </si>
+  <si>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>22/11/2014</t>
+  </si>
+  <si>
+    <t>thanhnhav@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +101,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -98,15 +117,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,45 +479,58 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
+    <col min="5" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -463,7 +562,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>thanhnhav@gmail.com</t>
+  </si>
+  <si>
+    <t>tynguyen</t>
   </si>
 </sst>
 </file>
@@ -117,10 +120,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -513,22 +570,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="44" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65EFB3B-6F84-4322-B2D5-3D94E1C0CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBCB0B8-7BF1-4F43-8AC9-747E4B65EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3168" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -50,15 +50,9 @@
     <t>brithday</t>
   </si>
   <si>
-    <t>thanhnhas@gmail.com</t>
-  </si>
-  <si>
     <t>Aty05121995</t>
   </si>
   <si>
-    <t>tynguyen95</t>
-  </si>
-  <si>
     <t>0912345678</t>
   </si>
   <si>
@@ -69,6 +63,24 @@
   </si>
   <si>
     <t>tynguyen</t>
+  </si>
+  <si>
+    <t>Aty05121995@</t>
+  </si>
+  <si>
+    <t>thanhnha@gmail.com</t>
+  </si>
+  <si>
+    <t>0912345679</t>
+  </si>
+  <si>
+    <t>0912345680</t>
+  </si>
+  <si>
+    <t>22/11/2015</t>
+  </si>
+  <si>
+    <t>22/11/2016</t>
   </si>
 </sst>
 </file>
@@ -76,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +100,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,10 +138,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -533,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,31 +606,74 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>11</v>
+      <c r="F2" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{58A0A1DA-E183-4522-BBFB-31D1D76583A7}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{4B6029A1-4130-4D2D-BB2C-C1E88E14C836}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{0F800CCC-DA43-44FA-A8DF-9208C195023E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>22/11/2016</t>
+  </si>
+  <si>
+    <t>22112014</t>
   </si>
 </sst>
 </file>
@@ -138,10 +141,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -606,23 +735,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>9</v>
+      <c r="F2" s="92" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBCB0B8-7BF1-4F43-8AC9-747E4B65EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18EDA5-B386-4CD3-992C-D333BEAC9D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5088" yWindow="5592" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -50,40 +50,22 @@
     <t>brithday</t>
   </si>
   <si>
+    <t>thanhnhav@gmail.com</t>
+  </si>
+  <si>
     <t>Aty05121995</t>
   </si>
   <si>
+    <t>tynguyen92</t>
+  </si>
+  <si>
     <t>0912345678</t>
   </si>
   <si>
-    <t>22/11/2014</t>
-  </si>
-  <si>
-    <t>thanhnhav@gmail.com</t>
+    <t>22112014</t>
   </si>
   <si>
     <t>tynguyen</t>
-  </si>
-  <si>
-    <t>Aty05121995@</t>
-  </si>
-  <si>
-    <t>thanhnha@gmail.com</t>
-  </si>
-  <si>
-    <t>0912345679</t>
-  </si>
-  <si>
-    <t>0912345680</t>
-  </si>
-  <si>
-    <t>22/11/2015</t>
-  </si>
-  <si>
-    <t>22/11/2016</t>
-  </si>
-  <si>
-    <t>22112014</t>
   </si>
 </sst>
 </file>
@@ -114,12 +96,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -141,280 +126,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,7 +491,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,74 +525,44 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="90" t="s">
+      <c r="F2" s="27" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="92" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{58A0A1DA-E183-4522-BBFB-31D1D76583A7}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{4B6029A1-4130-4D2D-BB2C-C1E88E14C836}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0F800CCC-DA43-44FA-A8DF-9208C195023E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18EDA5-B386-4CD3-992C-D333BEAC9D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46D0C2-7041-41CC-A0C2-5F3A360F45C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="5592" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Register" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="3" r:id="rId3"/>
+    <sheet name="Login_Fail" sheetId="4" r:id="rId2"/>
+    <sheet name="Register" sheetId="2" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Aty05121995</t>
   </si>
   <si>
-    <t>tynguyen92</t>
-  </si>
-  <si>
     <t>0912345678</t>
   </si>
   <si>
@@ -66,13 +64,18 @@
   </si>
   <si>
     <t>tynguyen</t>
+  </si>
+  <si>
+    <t>htk@gmail.com</t>
+  </si>
+  <si>
+    <t>kht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,9 +111,6 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -126,85 +126,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,67 +418,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125"/>
-    <col min="2" max="2" customWidth="true" width="16.44140625"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875"/>
-    <col min="4" max="4" customWidth="true" width="18.44140625"/>
-    <col min="5" max="5" customWidth="true" width="17.109375"/>
-    <col min="6" max="6" customWidth="true" width="10.5546875"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11022011</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -561,12 +501,88 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8AC1388D-6890-416D-906C-803BC7B9D64C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9ECCEC-BD59-4AF9-AC6A-76303A7E6DCE}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11022011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8B6BB1C4-71D2-43B8-BD7D-3B697D4607D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C8005-CC9E-4423-A344-148351CF922E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -578,7 +594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2486F00-4E17-4EB8-BC63-01DF7395A359}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -587,7 +603,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -76,6 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +112,9 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -126,13 +130,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,51 +500,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
+    <col min="5" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -519,31 +595,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
+    <col min="5" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -603,7 +679,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -130,13 +130,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -529,22 +601,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="51" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -130,13 +130,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -601,22 +655,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="69" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46D0C2-7041-41CC-A0C2-5F3A360F45C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881ABDE0-6EEC-4386-8813-452695407FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="-21120" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Login_Fail" sheetId="4" r:id="rId2"/>
-    <sheet name="Register" sheetId="2" r:id="rId3"/>
-    <sheet name="update" sheetId="3" r:id="rId4"/>
+    <sheet name="update" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -51,32 +50,37 @@
     <t>brithday</t>
   </si>
   <si>
-    <t>thanhnhav@gmail.com</t>
+    <t>htk@gmail.com</t>
+  </si>
+  <si>
+    <t>kht</t>
   </si>
   <si>
     <t>Aty05121995</t>
   </si>
   <si>
+    <t>tynguyen</t>
+  </si>
+  <si>
+    <t>22112014</t>
+  </si>
+  <si>
+    <t>sdasada@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyen truong thanh nha</t>
+  </si>
+  <si>
+    <t>thanhnhaznvietnam@gmail.com</t>
+  </si>
+  <si>
     <t>0912345678</t>
-  </si>
-  <si>
-    <t>22112014</t>
-  </si>
-  <si>
-    <t>tynguyen</t>
-  </si>
-  <si>
-    <t>htk@gmail.com</t>
-  </si>
-  <si>
-    <t>kht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +118,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -139,202 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,93 +430,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125"/>
-    <col min="2" max="2" customWidth="true" width="16.44140625"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875"/>
-    <col min="4" max="4" customWidth="true" width="18.44140625"/>
-    <col min="5" max="5" customWidth="true" width="17.109375"/>
-    <col min="6" max="6" customWidth="true" width="10.5546875"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="67" t="s">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>12345679</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11022011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D3" s="3">
+        <v>12345679</v>
+      </c>
+      <c r="E3" s="3">
+        <v>320633766</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12052005</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8AC1388D-6890-416D-906C-803BC7B9D64C}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{B4EDAB7A-F875-48F8-A861-D65ED6D41ABE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -715,49 +520,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9ECCEC-BD59-4AF9-AC6A-76303A7E6DCE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125"/>
-    <col min="2" max="2" customWidth="true" width="16.44140625"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875"/>
-    <col min="4" max="4" customWidth="true" width="18.44140625"/>
-    <col min="5" max="5" customWidth="true" width="17.109375"/>
-    <col min="6" max="6" customWidth="true" width="10.5546875"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>12345</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
@@ -785,18 +590,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C8005-CC9E-4423-A344-148351CF922E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2486F00-4E17-4EB8-BC63-01DF7395A359}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -805,7 +598,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -75,12 +75,22 @@
   </si>
   <si>
     <t>0912345678</t>
+  </si>
+  <si>
+    <t>vietnam@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty05121995@</t>
+  </si>
+  <si>
+    <t>0376082747</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +130,9 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -147,6 +160,222 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -438,51 +667,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.88671875"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="3" max="3" customWidth="true" width="30.77734375"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
+    <col min="5" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -504,6 +733,26 @@
       </c>
       <c r="F3" s="3">
         <v>12052005</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="72">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="73">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="75">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="74">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="76">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="77">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -526,31 +775,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
+    <col min="5" max="5" customWidth="true" width="17.109375"/>
+    <col min="6" max="6" customWidth="true" width="10.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
@@ -598,7 +847,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>2</v>
       </c>
     </row>

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\MocProject_Cybersoft_Test04_Final_exam\Automation\Demo\src\main\java\utils\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881ABDE0-6EEC-4386-8813-452695407FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A34FD8C-A819-457C-A614-D1FEAF8C00C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6570" yWindow="-21120" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -56,34 +56,79 @@
     <t>kht</t>
   </si>
   <si>
-    <t>Aty05121995</t>
-  </si>
-  <si>
-    <t>tynguyen</t>
-  </si>
-  <si>
-    <t>22112014</t>
-  </si>
-  <si>
-    <t>sdasada@gmail.com</t>
-  </si>
-  <si>
-    <t>nguyen truong thanh nha</t>
-  </si>
-  <si>
-    <t>thanhnhaznvietnam@gmail.com</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>vietnam@gmail.com</t>
-  </si>
-  <si>
-    <t>Aty05121995@</t>
-  </si>
-  <si>
-    <t>0376082747</t>
+    <t>user85041@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty2294@</t>
+  </si>
+  <si>
+    <t>linwvtvx</t>
+  </si>
+  <si>
+    <t>0839564105</t>
+  </si>
+  <si>
+    <t>08011999</t>
+  </si>
+  <si>
+    <t>user92454@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty1052@</t>
+  </si>
+  <si>
+    <t>hckxxcvv</t>
+  </si>
+  <si>
+    <t>0972248302</t>
+  </si>
+  <si>
+    <t>14092004</t>
+  </si>
+  <si>
+    <t>user16058@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty3825@</t>
+  </si>
+  <si>
+    <t>upvchoxf</t>
+  </si>
+  <si>
+    <t>0375259288</t>
+  </si>
+  <si>
+    <t>15102004</t>
+  </si>
+  <si>
+    <t>user72216@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty1954@</t>
+  </si>
+  <si>
+    <t>imciyaku</t>
+  </si>
+  <si>
+    <t>0884524740</t>
+  </si>
+  <si>
+    <t>14011985</t>
+  </si>
+  <si>
+    <t>user22245@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty7298@</t>
+  </si>
+  <si>
+    <t>mabmikuf</t>
+  </si>
+  <si>
+    <t>0973053301</t>
+  </si>
+  <si>
+    <t>14091982</t>
   </si>
 </sst>
 </file>
@@ -147,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -160,132 +205,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -662,7 +581,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,72 +615,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>11</v>
+      <c r="A2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3">
-        <v>12345679</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12345679</v>
-      </c>
-      <c r="E3" s="3">
-        <v>320633766</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12052005</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="72">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="73">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="75">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="74">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="76">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="77">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{B4EDAB7A-F875-48F8-A861-D65ED6D41ABE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -129,6 +129,51 @@
   </si>
   <si>
     <t>14091982</t>
+  </si>
+  <si>
+    <t>user36235@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty4527@</t>
+  </si>
+  <si>
+    <t>zcnnjooz</t>
+  </si>
+  <si>
+    <t>0885694514</t>
+  </si>
+  <si>
+    <t>02062004</t>
+  </si>
+  <si>
+    <t>user26579@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty5122@</t>
+  </si>
+  <si>
+    <t>bqiruflc</t>
+  </si>
+  <si>
+    <t>0835952923</t>
+  </si>
+  <si>
+    <t>02111989</t>
+  </si>
+  <si>
+    <t>user91070@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty7702@</t>
+  </si>
+  <si>
+    <t>yfypehcy</t>
+  </si>
+  <si>
+    <t>0886370870</t>
+  </si>
+  <si>
+    <t>26111990</t>
   </si>
 </sst>
 </file>
@@ -192,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -205,6 +250,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -615,23 +714,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>33</v>
+      <c r="A2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -174,6 +174,51 @@
   </si>
   <si>
     <t>26111990</t>
+  </si>
+  <si>
+    <t>user71377@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty5337@</t>
+  </si>
+  <si>
+    <t>bbabgvkc</t>
+  </si>
+  <si>
+    <t>0835322423</t>
+  </si>
+  <si>
+    <t>09061989</t>
+  </si>
+  <si>
+    <t>user64160@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty9286@</t>
+  </si>
+  <si>
+    <t>ojtslpdl</t>
+  </si>
+  <si>
+    <t>0835264587</t>
+  </si>
+  <si>
+    <t>06071992</t>
+  </si>
+  <si>
+    <t>user82834@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty4096@</t>
+  </si>
+  <si>
+    <t>bozgsihf</t>
+  </si>
+  <si>
+    <t>0885102807</t>
+  </si>
+  <si>
+    <t>04102007</t>
   </si>
 </sst>
 </file>
@@ -237,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -250,6 +295,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -714,23 +813,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>48</v>
+      <c r="A2" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>username</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>04102007</t>
+  </si>
+  <si>
+    <t>user14846@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty3310@</t>
+  </si>
+  <si>
+    <t>urvsmpzh</t>
+  </si>
+  <si>
+    <t>0882261697</t>
+  </si>
+  <si>
+    <t>02042004</t>
   </si>
 </sst>
 </file>
@@ -282,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -295,6 +310,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -813,23 +846,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>63</v>
+      <c r="A2" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>username</t>
   </si>
@@ -234,6 +234,36 @@
   </si>
   <si>
     <t>02042004</t>
+  </si>
+  <si>
+    <t>user98694@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty1068@</t>
+  </si>
+  <si>
+    <t>ilnqdjhl</t>
+  </si>
+  <si>
+    <t>0979699549</t>
+  </si>
+  <si>
+    <t>26061980</t>
+  </si>
+  <si>
+    <t>user34204@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty3085@</t>
+  </si>
+  <si>
+    <t>ancimuwp</t>
+  </si>
+  <si>
+    <t>0839293789</t>
+  </si>
+  <si>
+    <t>28021998</t>
   </si>
 </sst>
 </file>
@@ -297,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -310,6 +340,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -846,23 +912,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>68</v>
+      <c r="A2" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>username</t>
   </si>
@@ -264,6 +264,66 @@
   </si>
   <si>
     <t>28021998</t>
+  </si>
+  <si>
+    <t>user65636@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty9432@</t>
+  </si>
+  <si>
+    <t>ezqzbaji</t>
+  </si>
+  <si>
+    <t>0977412913</t>
+  </si>
+  <si>
+    <t>02061994</t>
+  </si>
+  <si>
+    <t>user12847@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty1456@</t>
+  </si>
+  <si>
+    <t>hzvyjreh</t>
+  </si>
+  <si>
+    <t>0376904524</t>
+  </si>
+  <si>
+    <t>10081983</t>
+  </si>
+  <si>
+    <t>user54784@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty5900@</t>
+  </si>
+  <si>
+    <t>fkznyobe</t>
+  </si>
+  <si>
+    <t>0379506634</t>
+  </si>
+  <si>
+    <t>10041981</t>
+  </si>
+  <si>
+    <t>user86558@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty5395@</t>
+  </si>
+  <si>
+    <t>qptmzkxi</t>
+  </si>
+  <si>
+    <t>0888891718</t>
+  </si>
+  <si>
+    <t>02121988</t>
   </si>
 </sst>
 </file>
@@ -327,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -340,6 +400,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -912,23 +1044,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>78</v>
+      <c r="A2" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="113" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>username</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>28021998</t>
+  </si>
+  <si>
+    <t>user86736@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty2559@</t>
+  </si>
+  <si>
+    <t>ljnslmil</t>
+  </si>
+  <si>
+    <t>0376373807</t>
+  </si>
+  <si>
+    <t>19052000</t>
   </si>
 </sst>
 </file>
@@ -327,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -340,6 +355,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -912,23 +945,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>78</v>
+      <c r="A2" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">

--- a/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
+++ b/Automation/Demo/src/main/java/utils/TestData/UserData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>username</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>04012008</t>
+  </si>
+  <si>
+    <t>user73281@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty9867@</t>
+  </si>
+  <si>
+    <t>zedwcfdg</t>
+  </si>
+  <si>
+    <t>0836159186</t>
+  </si>
+  <si>
+    <t>23121982</t>
+  </si>
+  <si>
+    <t>user98348@gmail.com</t>
+  </si>
+  <si>
+    <t>Aty8209@</t>
+  </si>
+  <si>
+    <t>ziyauxsi</t>
+  </si>
+  <si>
+    <t>0975392963</t>
+  </si>
+  <si>
+    <t>14121988</t>
   </si>
 </sst>
 </file>
@@ -186,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -214,6 +244,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,23 +616,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>30</v>
+      <c r="A2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
